--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Adam12</t>
+  </si>
+  <si>
+    <t>Itga9</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam12</t>
-  </si>
-  <si>
-    <t>Itga9</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H2">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I2">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J2">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N2">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O2">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P2">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q2">
-        <v>55.05774706785</v>
+        <v>7.22229970953</v>
       </c>
       <c r="R2">
-        <v>220.2309882714</v>
+        <v>28.88919883812</v>
       </c>
       <c r="S2">
-        <v>0.0206350497024767</v>
+        <v>0.01055114578077124</v>
       </c>
       <c r="T2">
-        <v>0.01062553091276889</v>
+        <v>0.005596756602543906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H3">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I3">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J3">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P3">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q3">
-        <v>24.0938825459625</v>
+        <v>8.971360334025</v>
       </c>
       <c r="R3">
-        <v>144.563295275775</v>
+        <v>53.82816200415</v>
       </c>
       <c r="S3">
-        <v>0.009030127281613575</v>
+        <v>0.01310636979122074</v>
       </c>
       <c r="T3">
-        <v>0.006974775779108482</v>
+        <v>0.01042822692272122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H4">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I4">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J4">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N4">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O4">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P4">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q4">
-        <v>54.844593156325</v>
+        <v>3.281400035724999</v>
       </c>
       <c r="R4">
-        <v>329.06755893795</v>
+        <v>19.68840021435</v>
       </c>
       <c r="S4">
-        <v>0.02055516191569212</v>
+        <v>0.004793837355749325</v>
       </c>
       <c r="T4">
-        <v>0.01587659187895793</v>
+        <v>0.003814269288346974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H5">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I5">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J5">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N5">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O5">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P5">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q5">
-        <v>6.92365123468875</v>
+        <v>4.34760705503</v>
       </c>
       <c r="R5">
-        <v>27.694604938755</v>
+        <v>17.39042822012</v>
       </c>
       <c r="S5">
-        <v>0.002594909798513039</v>
+        <v>0.006351472201382271</v>
       </c>
       <c r="T5">
-        <v>0.001336187442118827</v>
+        <v>0.00336907902871966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H6">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I6">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J6">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N6">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O6">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P6">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q6">
-        <v>25.267257445675</v>
+        <v>1.461086318898333</v>
       </c>
       <c r="R6">
-        <v>151.60354467405</v>
+        <v>8.76651791339</v>
       </c>
       <c r="S6">
-        <v>0.009469895537030343</v>
+        <v>0.002134518833197238</v>
       </c>
       <c r="T6">
-        <v>0.007314448175814011</v>
+        <v>0.001698353328799956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H7">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I7">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J7">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N7">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O7">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P7">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q7">
-        <v>100.7613004617675</v>
+        <v>4.451760201178333</v>
       </c>
       <c r="R7">
-        <v>604.567802770605</v>
+        <v>26.71056120707</v>
       </c>
       <c r="S7">
-        <v>0.03776424851805972</v>
+        <v>0.006503630803591338</v>
       </c>
       <c r="T7">
-        <v>0.02916871021478342</v>
+        <v>0.005174685204356139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H8">
         <v>190.345646</v>
       </c>
       <c r="I8">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J8">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N8">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O8">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P8">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q8">
-        <v>418.9520358169733</v>
+        <v>147.594394599692</v>
       </c>
       <c r="R8">
-        <v>2513.71221490184</v>
+        <v>885.5663675981521</v>
       </c>
       <c r="S8">
-        <v>0.157018703859846</v>
+        <v>0.2156224521936058</v>
       </c>
       <c r="T8">
-        <v>0.1212796030880494</v>
+        <v>0.1715623698191943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H9">
         <v>190.345646</v>
       </c>
       <c r="I9">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J9">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P9">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q9">
         <v>183.33807104251</v>
@@ -1013,10 +1013,10 @@
         <v>1650.04263938259</v>
       </c>
       <c r="S9">
-        <v>0.06871313139014228</v>
+        <v>0.2678408252959087</v>
       </c>
       <c r="T9">
-        <v>0.07960995502840111</v>
+        <v>0.3196657369486421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H10">
         <v>190.345646</v>
       </c>
       <c r="I10">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J10">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N10">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O10">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P10">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q10">
-        <v>417.3300794178911</v>
+        <v>67.05845384305667</v>
       </c>
       <c r="R10">
-        <v>3755.97071476102</v>
+        <v>603.52608458751</v>
       </c>
       <c r="S10">
-        <v>0.1564108120972378</v>
+        <v>0.09796651354659086</v>
       </c>
       <c r="T10">
-        <v>0.1812151107816222</v>
+        <v>0.1169221970346074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H11">
         <v>190.345646</v>
       </c>
       <c r="I11">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J11">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N11">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O11">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P11">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q11">
-        <v>52.68428031544632</v>
+        <v>88.84738338922534</v>
       </c>
       <c r="R11">
-        <v>316.1056818926779</v>
+        <v>533.0843003353521</v>
       </c>
       <c r="S11">
-        <v>0.01974549996585798</v>
+        <v>0.129798226615106</v>
       </c>
       <c r="T11">
-        <v>0.01525121746497073</v>
+        <v>0.1032753831053813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H12">
         <v>190.345646</v>
       </c>
       <c r="I12">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J12">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N12">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O12">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P12">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q12">
-        <v>192.2666565584644</v>
+        <v>29.8586543578549</v>
       </c>
       <c r="R12">
-        <v>1730.39990902618</v>
+        <v>268.7278892206941</v>
       </c>
       <c r="S12">
-        <v>0.0720594689303886</v>
+        <v>0.04362087252231868</v>
       </c>
       <c r="T12">
-        <v>0.08348696915509363</v>
+        <v>0.05206113872216616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H13">
         <v>190.345646</v>
       </c>
       <c r="I13">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J13">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N13">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O13">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P13">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q13">
-        <v>766.7250152462819</v>
+        <v>90.97584955231356</v>
       </c>
       <c r="R13">
-        <v>6900.525137216538</v>
+        <v>818.782645970822</v>
       </c>
       <c r="S13">
-        <v>0.2873602651819705</v>
+        <v>0.1329077288068455</v>
       </c>
       <c r="T13">
-        <v>0.3329310908303043</v>
+        <v>0.1586242389608538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H14">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I14">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J14">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N14">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O14">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P14">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q14">
-        <v>51.38104686843</v>
+        <v>11.359890917949</v>
       </c>
       <c r="R14">
-        <v>205.52418747372</v>
+        <v>45.439563671796</v>
       </c>
       <c r="S14">
-        <v>0.0192570621276738</v>
+        <v>0.01659580326897554</v>
       </c>
       <c r="T14">
-        <v>0.009915968794693539</v>
+        <v>0.008803088636063688</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H15">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I15">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J15">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P15">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q15">
-        <v>22.4849176413075</v>
+        <v>14.1109728035325</v>
       </c>
       <c r="R15">
-        <v>134.909505847845</v>
+        <v>84.665836821195</v>
       </c>
       <c r="S15">
-        <v>0.008427104590979655</v>
+        <v>0.02061489236760829</v>
       </c>
       <c r="T15">
-        <v>0.006509007365694188</v>
+        <v>0.01640246529141079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H16">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I16">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J16">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N16">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O16">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P16">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q16">
-        <v>51.182127157735</v>
+        <v>5.1612849041425</v>
       </c>
       <c r="R16">
-        <v>307.0927629464099</v>
+        <v>30.967709424855</v>
       </c>
       <c r="S16">
-        <v>0.01918250916581841</v>
+        <v>0.007540184100618733</v>
       </c>
       <c r="T16">
-        <v>0.0148163692647718</v>
+        <v>0.005999430207822866</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H17">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I17">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J17">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N17">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O17">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P17">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q17">
-        <v>6.461296866212249</v>
+        <v>6.838312433099</v>
       </c>
       <c r="R17">
-        <v>25.84518746484899</v>
+        <v>27.353249732396</v>
       </c>
       <c r="S17">
-        <v>0.002421624368545983</v>
+        <v>0.009990174082762258</v>
       </c>
       <c r="T17">
-        <v>0.001246958207423724</v>
+        <v>0.005299194411677985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H18">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I18">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J18">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N18">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O18">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P18">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q18">
-        <v>23.579935761865</v>
+        <v>2.298129663947833</v>
       </c>
       <c r="R18">
-        <v>141.47961457119</v>
+        <v>13.788777983687</v>
       </c>
       <c r="S18">
-        <v>0.008837505570790379</v>
+        <v>0.003357365670581727</v>
       </c>
       <c r="T18">
-        <v>0.006825996786157234</v>
+        <v>0.00267132483159697</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H19">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I19">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J19">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N19">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O19">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P19">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q19">
-        <v>94.0325635767465</v>
+        <v>7.002133989471833</v>
       </c>
       <c r="R19">
-        <v>564.195381460479</v>
+        <v>42.012803936831</v>
       </c>
       <c r="S19">
-        <v>0.0352423905152942</v>
+        <v>0.01022950299361344</v>
       </c>
       <c r="T19">
-        <v>0.02722085349388715</v>
+        <v>0.008139216291265737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H20">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I20">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J20">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N20">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O20">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P20">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q20">
-        <v>24.78141798986</v>
+        <v>0.07888552247</v>
       </c>
       <c r="R20">
-        <v>148.68850793916</v>
+        <v>0.47331313482</v>
       </c>
       <c r="S20">
-        <v>0.009287808149658459</v>
+        <v>0.0001152448224316961</v>
       </c>
       <c r="T20">
-        <v>0.007173805784016449</v>
+        <v>9.169580739217818E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H21">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I21">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J21">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P21">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q21">
-        <v>10.844624165865</v>
+        <v>0.09798962597500001</v>
       </c>
       <c r="R21">
-        <v>97.60161749278502</v>
+        <v>0.8819066337750001</v>
       </c>
       <c r="S21">
-        <v>0.004064448158249763</v>
+        <v>0.000143154240373217</v>
       </c>
       <c r="T21">
-        <v>0.004709005812242047</v>
+        <v>0.0001708533629840427</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H22">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I22">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J22">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N22">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O22">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P22">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q22">
-        <v>24.68547770063667</v>
+        <v>0.03584107094166666</v>
       </c>
       <c r="R22">
-        <v>222.16929930573</v>
+        <v>0.322569638475</v>
       </c>
       <c r="S22">
-        <v>0.009251850764149137</v>
+        <v>5.236065791419479E-05</v>
       </c>
       <c r="T22">
-        <v>0.01071904901381131</v>
+        <v>6.249199792736938E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H23">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I23">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J23">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N23">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O23">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P23">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q23">
-        <v>3.1163261193995</v>
+        <v>0.04748671030333333</v>
       </c>
       <c r="R23">
-        <v>18.697956716397</v>
+        <v>0.28492026182</v>
       </c>
       <c r="S23">
-        <v>0.001167965414271103</v>
+        <v>6.937391457164096E-05</v>
       </c>
       <c r="T23">
-        <v>0.0009021242589660207</v>
+        <v>5.519811627435896E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H24">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I24">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J24">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N24">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O24">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P24">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q24">
-        <v>11.37275863189667</v>
+        <v>0.01595870599055556</v>
       </c>
       <c r="R24">
-        <v>102.35482768707</v>
+        <v>0.143628353915</v>
       </c>
       <c r="S24">
-        <v>0.004262387259221771</v>
+        <v>2.331426832877538E-05</v>
       </c>
       <c r="T24">
-        <v>0.004938334946396518</v>
+        <v>2.782538008723128E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H25">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I25">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J25">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N25">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O25">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P25">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q25">
-        <v>45.352525973643</v>
+        <v>0.04862432237722222</v>
       </c>
       <c r="R25">
-        <v>408.1727337627871</v>
+        <v>0.437618901395</v>
       </c>
       <c r="S25">
-        <v>0.01699763752493721</v>
+        <v>7.103586593288517E-05</v>
       </c>
       <c r="T25">
-        <v>0.01969319592300585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.060614</v>
-      </c>
-      <c r="I26">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J26">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>6.60302</v>
-      </c>
-      <c r="N26">
-        <v>13.20604</v>
-      </c>
-      <c r="O26">
-        <v>0.2062486251499857</v>
-      </c>
-      <c r="P26">
-        <v>0.1490335290681818</v>
-      </c>
-      <c r="Q26">
-        <v>0.1334118180933333</v>
-      </c>
-      <c r="R26">
-        <v>0.80047090856</v>
-      </c>
-      <c r="S26">
-        <v>5.000131033079004E-05</v>
-      </c>
-      <c r="T26">
-        <v>3.862048865346271E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.060614</v>
-      </c>
-      <c r="I27">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J27">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.889555</v>
-      </c>
-      <c r="N27">
-        <v>8.668665000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.09025669255057035</v>
-      </c>
-      <c r="P27">
-        <v>0.0978280951185844</v>
-      </c>
-      <c r="Q27">
-        <v>0.05838249559</v>
-      </c>
-      <c r="R27">
-        <v>0.5254424603100001</v>
-      </c>
-      <c r="S27">
-        <v>2.188112958508168E-05</v>
-      </c>
-      <c r="T27">
-        <v>2.535113313856155E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.060614</v>
-      </c>
-      <c r="I28">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J28">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>6.577456666666667</v>
-      </c>
-      <c r="N28">
-        <v>19.73237</v>
-      </c>
-      <c r="O28">
-        <v>0.2054501416751135</v>
-      </c>
-      <c r="P28">
-        <v>0.2226848273955795</v>
-      </c>
-      <c r="Q28">
-        <v>0.1328953194644444</v>
-      </c>
-      <c r="R28">
-        <v>1.19605787518</v>
-      </c>
-      <c r="S28">
-        <v>4.980773221606535E-05</v>
-      </c>
-      <c r="T28">
-        <v>5.770645641622531E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.060614</v>
-      </c>
-      <c r="I29">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J29">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.8303464999999999</v>
-      </c>
-      <c r="N29">
-        <v>1.660693</v>
-      </c>
-      <c r="O29">
-        <v>0.02593628733868784</v>
-      </c>
-      <c r="P29">
-        <v>0.01874134399780903</v>
-      </c>
-      <c r="Q29">
-        <v>0.01677687425033333</v>
-      </c>
-      <c r="R29">
-        <v>0.100661245502</v>
-      </c>
-      <c r="S29">
-        <v>6.287791499735779E-06</v>
-      </c>
-      <c r="T29">
-        <v>4.856624329729802E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.060614</v>
-      </c>
-      <c r="I30">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J30">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3.030276666666667</v>
-      </c>
-      <c r="N30">
-        <v>9.09083</v>
-      </c>
-      <c r="O30">
-        <v>0.09465220404058775</v>
-      </c>
-      <c r="P30">
-        <v>0.1025923347997507</v>
-      </c>
-      <c r="Q30">
-        <v>0.06122572995777778</v>
-      </c>
-      <c r="R30">
-        <v>0.55103156962</v>
-      </c>
-      <c r="S30">
-        <v>2.294674315663924E-05</v>
-      </c>
-      <c r="T30">
-        <v>2.658573628927055E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.060614</v>
-      </c>
-      <c r="I31">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J31">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>12.084201</v>
-      </c>
-      <c r="N31">
-        <v>36.252603</v>
-      </c>
-      <c r="O31">
-        <v>0.377456049245055</v>
-      </c>
-      <c r="P31">
-        <v>0.4091198696200947</v>
-      </c>
-      <c r="Q31">
-        <v>0.244157253138</v>
-      </c>
-      <c r="R31">
-        <v>2.197415278242</v>
-      </c>
-      <c r="S31">
-        <v>9.15075047933587E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001060191581140136</v>
+        <v>8.478069916389084E-05</v>
       </c>
     </row>
   </sheetData>
